--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Joe Wilson</t>
+  </si>
+  <si>
+    <t>James Jones</t>
   </si>
 </sst>
 </file>
@@ -403,13 +406,14 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -587,10 +591,18 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>556321</v>
+      </c>
+      <c r="C8" s="4">
+        <v>32004</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1334</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1465,7 +1477,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BD297F4-AC4C-480A-912D-037144B80DCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{886C01CA-791B-4E13-A264-EA5435823207}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -406,7 +406,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,7 +1477,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{886C01CA-791B-4E13-A264-EA5435823207}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED3433E2-7891-4592-A18B-B83CD45F8FD3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>James Jones</t>
+  </si>
+  <si>
+    <t>Curtis Jackson</t>
   </si>
 </sst>
 </file>
@@ -406,12 +409,12 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -617,10 +620,18 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>30684</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5050</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1477,7 +1488,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED3433E2-7891-4592-A18B-B83CD45F8FD3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C9F2CC3-B336-4DA5-A24A-90E728F8BF6F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Curtis Jackson</t>
+  </si>
+  <si>
+    <t>Uzi Vert</t>
   </si>
 </sst>
 </file>
@@ -646,10 +649,18 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1233345</v>
+      </c>
+      <c r="C10" s="4">
+        <v>34003</v>
+      </c>
+      <c r="D10" s="3">
+        <v>23221</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1488,7 +1499,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C9F2CC3-B336-4DA5-A24A-90E728F8BF6F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{561DB2C4-94A5-4165-93A9-ED7E5227B482}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Uzi Vert</t>
+  </si>
+  <si>
+    <t>Consistency</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,10 +678,18 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>111111</v>
+      </c>
+      <c r="C11" s="4">
+        <v>36526</v>
+      </c>
+      <c r="D11" s="3">
+        <v>23321</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1499,7 +1510,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{561DB2C4-94A5-4165-93A9-ED7E5227B482}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993B24F6-CA59-4AF4-B2F8-4553CBB2FD05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1510,7 +1510,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993B24F6-CA59-4AF4-B2F8-4553CBB2FD05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BDEDAB-E4F8-4411-AD02-BE9A1FF91C89}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Consistency</t>
+  </si>
+  <si>
+    <t>$K</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +707,9 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1510,7 +1515,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BDEDAB-E4F8-4411-AD02-BE9A1FF91C89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89965D52-2B5D-4A88-AB9F-F6228B7D99F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>$K</t>
+  </si>
+  <si>
+    <t>Mook</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +730,9 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1515,7 +1520,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89965D52-2B5D-4A88-AB9F-F6228B7D99F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AF66FB-A673-4E7D-8576-E5A2DC8DD3CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
